--- a/i18n/excel_from_translation/pl.gov.edwin.xlsx
+++ b/i18n/excel_from_translation/pl.gov.edwin.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_363537C48E23225751B54B4D53E2C2D4D7C863E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76C4CA1-EAEE-4008-ACC4-C99B1178BAD3}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_363537C48E23225751B54B4D53E2C2D4D7C863E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3F72E9-37F1-4482-9E6B-25BE95DD874B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>KEY</t>
   </si>
@@ -134,6 +134,21 @@
 https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo</t>
   </si>
   <si>
+    <t>eDWIN“ \ „Virtualus ūkis“ \ leidžia vartotojams Lenkijoje gauti, rinkti ir dalytis informacija apie kenkėjų paplitimą tam tikroje vietovėje ir teikia pranešimus apie galimas grėsmes lauke.
+„eDWIN“ platforma taip pat suteikia prieigą prie maždaug 600 meteorologijos stočių  duomenų esančių visoje Lenkijoje, kuriuose, stebima temperatūra, oro drėgmė, bendras kritulių kiekis ir intensyvumas, atmosferos slėgis, vėjo greitis ir kryptis ir kt.
+„eDWIN“ konsultacinė platforma buvo sukurta įgyvendinant projektą „Internetinė platforma konsultavimui ir sprendimų priėmimui integruotai augalų apsaugai“. 
+Platforma yra visiems prieinama ir visiškai nemokama naudojant kompiuteriuose ir kaip mobilią programėlę telefone, tačiau šiuo metu ja gali naudotis tik vartotojai Lenkijoje. 
+https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La "ferme virtuelle" eDWIN permet aux utilisateurs polonais d'obtenir, de collecter et de partager des informations sur la présence de parasites dans une zone donnée et de recevoir des notifications sur les menaces éventuelles sur le terrain.
+La plateforme eDWIN permet également d'accéder aux données de quelque 600 stations météorologiques réparties sur l'ensemble du territoire polonais, qui surveillent (entre autres) la température, l'humidité de l'air, le total et l'intensité des précipitations, la pression atmosphérique ainsi que la vitesse et la direction du vent.
+La plateforme de conseil eDWIN a été créée dans le cadre du projet "Plateforme Internet de conseil et d'aide à la décision pour la protection intégrée des plantes". 
+La plateforme est entièrement gratuite et disponible pour tous sur les ordinateurs et sous forme d'application sur les appareils mobiles, mais n'est actuellement accessible qu'aux utilisateurs en Pologne. 
+https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo
+</t>
+  </si>
+  <si>
     <t>"La "fattoria virtuale" eDWIN consente agli utenti in Polonia di ottenere, raccogliere e condividere informazioni sulla presenza di parassiti in una determinata area e fornisce notifiche su possibili minacce sul campo.
 La piattaforma eDWIN fornisce anche l'accesso ai dati di circa 600 stazioni meteorologiche in tutta la Polonia, monitorando (tra l'altro) la temperatura, l'umidità dell'aria, il totale e l'intensità delle precipitazioni, la pressione atmosferica e la velocità e direzione del vento.
 La piattaforma di consulenza eDWIN è stata creata nell'ambito del progetto "Internet Platform for Advisory and Decision Support in Integrated Plant Protection". 
@@ -141,6 +156,11 @@
 https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo"</t>
   </si>
   <si>
+    <t>Το eDWIN \"Virtual farm\" επιτρέπει στους χρήστες στην Πολωνία να λαμβάνουν, να συλλέγουν και να μοιράζονται πληροφορίες σχετικά με την εμφάνιση παρασίτων σε μια συγκεκριμένη περιοχή και παρέχει ειδοποιήσεις σχετικά με πιθανές απειλές στο πεδίο.
+Η πλατφόρμα eDWIN, παρέχει επίσης πρόσβαση σε δεδομένα από περίπου 600 μετεωρολογικούς σταθμούς σε όλη την Πολωνία, που παρακολουθούν (μεταξύ άλλων) τη θερμοκρασία, την υγρασία του αέρα, το σύνολο και την ένταση της βροχόπτωσης, την ατμοσφαιρική πίεση και την ταχύτητα και κατεύθυνση του ανέμου.
+Η συμβουλευτική πλατφόρμα eDWIN δημιουργήθηκε στο πλαίσιο του έργου \"Internet Platform for Advisory and Decision Support in Integrated Plant Protection\.Η πλατφόρμα είναι εντελώς δωρεάν και διαθέσιμη σε όλους σε υπολογιστές και ως εφαρμογή σε κινητές συσκευές, αλλά προς το παρόν είναι προσβάσιμη μόνο σε χρήστες στην Πολωνία.  https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo"https://www.edwin.gov.pl/euslugi/wirtualne-gospodarstwo"</t>
+  </si>
+  <si>
     <t>pl.gov.edwin.0_0_2.models.eDWIN_LINK.name</t>
   </si>
   <si>
@@ -162,9 +182,18 @@
     <t>eDWIN-plattform (bara i Polen)</t>
   </si>
   <si>
+    <t>eDWIN platforma (tik Lenkijoje)</t>
+  </si>
+  <si>
+    <t>Plate-forme eDWIN (Pologne uniquement)</t>
+  </si>
+  <si>
     <t>Piattaforma eDWIN (solo per la Polonia)</t>
   </si>
   <si>
+    <t>Πλατφόρμα eDWIN (μόνο στην Πολωνία)</t>
+  </si>
+  <si>
     <t>pl.gov.edwin.0_0_2.models.eDWIN_LINK.purpose</t>
   </si>
   <si>
@@ -189,14 +218,23 @@
     <t>Alusta kasvintuhoojien hallinnan päätöksenteon tueksi Puolassa</t>
   </si>
   <si>
+    <t>Sprendimų priėmimo pagalbos sistema skirta kenkėjams, prieinama Lenkijoje</t>
+  </si>
+  <si>
+    <t>Une plateforme d'aide à la décision antiparasitaire disponible en Pologne</t>
+  </si>
+  <si>
     <t>Piattaforma di supporto alle decisioni sui parassiti disponibile in Polonia</t>
+  </si>
+  <si>
+    <t>Πλατφόρμα υποστήριξης αποφάσεων για παράσιτα διαθέσιμη στην Πολωνία</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +256,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -276,10 +328,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -300,9 +353,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -640,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,7 +786,7 @@
       <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
@@ -733,7 +795,7 @@
       <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
@@ -753,15 +815,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="11" max="11" width="38.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -839,67 +905,97 @@
       <c r="I2" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="J2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="L2" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="45.75">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>34</v>
+      <c r="J3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="91.5">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="M5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -907,28 +1003,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1188,14 +1262,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f0f33890-2782-435d-9951-89eaf76ec08c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="49b2234f-12e0-4bdf-b627-3d078507bec9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA5431C3-574A-4303-83E8-F09837FEECC9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584BB4E3-788D-4024-B51E-79A648A7BBF0}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9F8C91-60E1-4DA6-8D20-4A12D11DC41A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA5431C3-574A-4303-83E8-F09837FEECC9}"/>
 </file>